--- a/Bieu_do_Gantt_.xlsx
+++ b/Bieu_do_Gantt_.xlsx
@@ -1,21 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PC\Documents\Zalo Received Files\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sinhvien\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{61938B56-4E7C-44B0-8ED1-CD2477C5E7C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{25865EF3-5633-4F6A-820E-6384675F4038}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12450"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -72,12 +71,12 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="2">
-    <numFmt numFmtId="165" formatCode="d"/>
-    <numFmt numFmtId="167" formatCode="ddd\,\ d\-mmm\-yyyy"/>
+    <numFmt numFmtId="164" formatCode="d"/>
+    <numFmt numFmtId="165" formatCode="ddd\,\ d\-mmm\-yyyy"/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -109,8 +108,13 @@
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
+    <font>
+      <sz val="13"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -126,6 +130,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -179,12 +189,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="15" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -193,7 +200,7 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -205,12 +212,6 @@
     <xf numFmtId="15" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="167" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -219,6 +220,27 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="15" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -533,1057 +555,1053 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AFBA8B23-E137-4B37-9228-20EAE393BF8E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A3:AU16"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="A16" sqref="A16:XFD16"/>
+      <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.8" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="5.5546875" style="1" customWidth="1"/>
-    <col min="2" max="2" width="13.5546875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="15.77734375" style="1" customWidth="1"/>
-    <col min="4" max="4" width="16.109375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="2.5546875" style="1" customWidth="1"/>
-    <col min="6" max="47" width="3.77734375" style="1" customWidth="1"/>
-    <col min="48" max="16384" width="8.88671875" style="1"/>
+    <col min="1" max="1" width="5.5703125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="15.140625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="15.7109375" style="1" customWidth="1"/>
+    <col min="4" max="4" width="16.140625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="2.5703125" style="1" customWidth="1"/>
+    <col min="6" max="47" width="3.7109375" style="1" customWidth="1"/>
+    <col min="48" max="16384" width="8.85546875" style="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:47" ht="50.4" x14ac:dyDescent="0.3">
-      <c r="B3" s="11" t="s">
+    <row r="3" spans="1:47" ht="49.5" x14ac:dyDescent="0.25">
+      <c r="B3" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="9">
+      <c r="C3" s="12">
         <v>45177</v>
       </c>
-      <c r="D3" s="10"/>
+      <c r="D3" s="13"/>
     </row>
-    <row r="4" spans="1:47" x14ac:dyDescent="0.3">
-      <c r="F4" s="2">
+    <row r="4" spans="1:47" x14ac:dyDescent="0.25">
+      <c r="F4" s="14">
         <f>F5</f>
         <v>45177</v>
       </c>
-      <c r="G4" s="2"/>
-      <c r="H4" s="2"/>
-      <c r="I4" s="2"/>
-      <c r="J4" s="2"/>
-      <c r="K4" s="2"/>
-      <c r="L4" s="2"/>
-      <c r="M4" s="2">
+      <c r="G4" s="14"/>
+      <c r="H4" s="14"/>
+      <c r="I4" s="14"/>
+      <c r="J4" s="14"/>
+      <c r="K4" s="14"/>
+      <c r="L4" s="14"/>
+      <c r="M4" s="14">
         <f>M5</f>
         <v>45184</v>
       </c>
-      <c r="N4" s="2"/>
-      <c r="O4" s="2"/>
-      <c r="P4" s="2"/>
-      <c r="Q4" s="2"/>
-      <c r="R4" s="2"/>
-      <c r="S4" s="2"/>
-      <c r="T4" s="2">
+      <c r="N4" s="14"/>
+      <c r="O4" s="14"/>
+      <c r="P4" s="14"/>
+      <c r="Q4" s="14"/>
+      <c r="R4" s="14"/>
+      <c r="S4" s="14"/>
+      <c r="T4" s="14">
         <f>T5</f>
         <v>45191</v>
       </c>
-      <c r="U4" s="2"/>
-      <c r="V4" s="2"/>
-      <c r="W4" s="2"/>
-      <c r="X4" s="2"/>
-      <c r="Y4" s="2"/>
-      <c r="Z4" s="2"/>
-      <c r="AA4" s="2">
+      <c r="U4" s="14"/>
+      <c r="V4" s="14"/>
+      <c r="W4" s="14"/>
+      <c r="X4" s="14"/>
+      <c r="Y4" s="14"/>
+      <c r="Z4" s="14"/>
+      <c r="AA4" s="14">
         <f>AA5</f>
         <v>45198</v>
       </c>
-      <c r="AB4" s="2"/>
-      <c r="AC4" s="2"/>
-      <c r="AD4" s="2"/>
-      <c r="AE4" s="2"/>
-      <c r="AF4" s="2"/>
-      <c r="AG4" s="2"/>
-      <c r="AH4" s="2">
+      <c r="AB4" s="14"/>
+      <c r="AC4" s="14"/>
+      <c r="AD4" s="14"/>
+      <c r="AE4" s="14"/>
+      <c r="AF4" s="14"/>
+      <c r="AG4" s="14"/>
+      <c r="AH4" s="14">
         <f>AH5</f>
         <v>45205</v>
       </c>
-      <c r="AI4" s="2"/>
-      <c r="AJ4" s="2"/>
-      <c r="AK4" s="2"/>
-      <c r="AL4" s="2"/>
-      <c r="AM4" s="2"/>
-      <c r="AN4" s="2"/>
-      <c r="AO4" s="2">
+      <c r="AI4" s="14"/>
+      <c r="AJ4" s="14"/>
+      <c r="AK4" s="14"/>
+      <c r="AL4" s="14"/>
+      <c r="AM4" s="14"/>
+      <c r="AN4" s="14"/>
+      <c r="AO4" s="14">
         <f>AO5</f>
         <v>45212</v>
       </c>
-      <c r="AP4" s="2"/>
-      <c r="AQ4" s="2"/>
-      <c r="AR4" s="2"/>
-      <c r="AS4" s="2"/>
-      <c r="AT4" s="2"/>
-      <c r="AU4" s="2"/>
+      <c r="AP4" s="14"/>
+      <c r="AQ4" s="14"/>
+      <c r="AR4" s="14"/>
+      <c r="AS4" s="14"/>
+      <c r="AT4" s="14"/>
+      <c r="AU4" s="14"/>
     </row>
-    <row r="5" spans="1:47" x14ac:dyDescent="0.3">
-      <c r="F5" s="5">
+    <row r="5" spans="1:47" x14ac:dyDescent="0.25">
+      <c r="F5" s="4">
         <f>$C$3</f>
         <v>45177</v>
       </c>
-      <c r="G5" s="5">
+      <c r="G5" s="4">
         <f>F5 +1</f>
         <v>45178</v>
       </c>
-      <c r="H5" s="5">
+      <c r="H5" s="4">
         <f t="shared" ref="H5:AU5" si="0">G5 +1</f>
         <v>45179</v>
       </c>
-      <c r="I5" s="5">
+      <c r="I5" s="4">
         <f t="shared" si="0"/>
         <v>45180</v>
       </c>
-      <c r="J5" s="5">
+      <c r="J5" s="4">
         <f t="shared" si="0"/>
         <v>45181</v>
       </c>
-      <c r="K5" s="5">
+      <c r="K5" s="4">
         <f t="shared" si="0"/>
         <v>45182</v>
       </c>
-      <c r="L5" s="5">
+      <c r="L5" s="4">
         <f t="shared" si="0"/>
         <v>45183</v>
       </c>
-      <c r="M5" s="5">
+      <c r="M5" s="4">
         <f t="shared" si="0"/>
         <v>45184</v>
       </c>
-      <c r="N5" s="5">
+      <c r="N5" s="4">
         <f t="shared" si="0"/>
         <v>45185</v>
       </c>
-      <c r="O5" s="5">
+      <c r="O5" s="4">
         <f t="shared" si="0"/>
         <v>45186</v>
       </c>
-      <c r="P5" s="5">
+      <c r="P5" s="4">
         <f t="shared" si="0"/>
         <v>45187</v>
       </c>
-      <c r="Q5" s="5">
+      <c r="Q5" s="4">
         <f t="shared" si="0"/>
         <v>45188</v>
       </c>
-      <c r="R5" s="5">
+      <c r="R5" s="4">
         <f t="shared" si="0"/>
         <v>45189</v>
       </c>
-      <c r="S5" s="5">
+      <c r="S5" s="4">
         <f t="shared" si="0"/>
         <v>45190</v>
       </c>
-      <c r="T5" s="5">
+      <c r="T5" s="4">
         <f t="shared" si="0"/>
         <v>45191</v>
       </c>
-      <c r="U5" s="5">
+      <c r="U5" s="4">
         <f t="shared" si="0"/>
         <v>45192</v>
       </c>
-      <c r="V5" s="5">
+      <c r="V5" s="4">
         <f t="shared" si="0"/>
         <v>45193</v>
       </c>
-      <c r="W5" s="5">
+      <c r="W5" s="4">
         <f t="shared" si="0"/>
         <v>45194</v>
       </c>
-      <c r="X5" s="5">
+      <c r="X5" s="4">
         <f t="shared" si="0"/>
         <v>45195</v>
       </c>
-      <c r="Y5" s="5">
+      <c r="Y5" s="4">
         <f t="shared" si="0"/>
         <v>45196</v>
       </c>
-      <c r="Z5" s="5">
+      <c r="Z5" s="4">
         <f t="shared" si="0"/>
         <v>45197</v>
       </c>
-      <c r="AA5" s="5">
+      <c r="AA5" s="4">
         <f t="shared" si="0"/>
         <v>45198</v>
       </c>
-      <c r="AB5" s="5">
+      <c r="AB5" s="4">
         <f t="shared" si="0"/>
         <v>45199</v>
       </c>
-      <c r="AC5" s="5">
+      <c r="AC5" s="4">
         <f t="shared" si="0"/>
         <v>45200</v>
       </c>
-      <c r="AD5" s="5">
+      <c r="AD5" s="4">
         <f t="shared" si="0"/>
         <v>45201</v>
       </c>
-      <c r="AE5" s="5">
+      <c r="AE5" s="4">
         <f t="shared" si="0"/>
         <v>45202</v>
       </c>
-      <c r="AF5" s="5">
+      <c r="AF5" s="4">
         <f t="shared" si="0"/>
         <v>45203</v>
       </c>
-      <c r="AG5" s="5">
+      <c r="AG5" s="4">
         <f t="shared" si="0"/>
         <v>45204</v>
       </c>
-      <c r="AH5" s="5">
+      <c r="AH5" s="4">
         <f t="shared" si="0"/>
         <v>45205</v>
       </c>
-      <c r="AI5" s="5">
+      <c r="AI5" s="4">
         <f t="shared" si="0"/>
         <v>45206</v>
       </c>
-      <c r="AJ5" s="5">
+      <c r="AJ5" s="4">
         <f t="shared" si="0"/>
         <v>45207</v>
       </c>
-      <c r="AK5" s="5">
+      <c r="AK5" s="4">
         <f t="shared" si="0"/>
         <v>45208</v>
       </c>
-      <c r="AL5" s="5">
+      <c r="AL5" s="4">
         <f t="shared" si="0"/>
         <v>45209</v>
       </c>
-      <c r="AM5" s="5">
+      <c r="AM5" s="4">
         <f t="shared" si="0"/>
         <v>45210</v>
       </c>
-      <c r="AN5" s="5">
+      <c r="AN5" s="4">
         <f t="shared" si="0"/>
         <v>45211</v>
       </c>
-      <c r="AO5" s="5">
+      <c r="AO5" s="4">
         <f t="shared" si="0"/>
         <v>45212</v>
       </c>
-      <c r="AP5" s="5">
+      <c r="AP5" s="4">
         <f t="shared" si="0"/>
         <v>45213</v>
       </c>
-      <c r="AQ5" s="5">
+      <c r="AQ5" s="4">
         <f t="shared" si="0"/>
         <v>45214</v>
       </c>
-      <c r="AR5" s="5">
+      <c r="AR5" s="4">
         <f t="shared" si="0"/>
         <v>45215</v>
       </c>
-      <c r="AS5" s="5">
+      <c r="AS5" s="4">
         <f t="shared" si="0"/>
         <v>45216</v>
       </c>
-      <c r="AT5" s="5">
+      <c r="AT5" s="4">
         <f t="shared" si="0"/>
         <v>45217</v>
       </c>
-      <c r="AU5" s="5">
+      <c r="AU5" s="4">
         <f t="shared" si="0"/>
         <v>45218</v>
       </c>
     </row>
-    <row r="6" spans="1:47" x14ac:dyDescent="0.3">
-      <c r="A6" s="3" t="s">
+    <row r="6" spans="1:47" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B6" s="4" t="s">
+      <c r="B6" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C6" s="3" t="s">
+      <c r="C6" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D6" s="3" t="s">
+      <c r="D6" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="E6" s="3"/>
-      <c r="F6" s="13" t="str">
+      <c r="E6" s="2"/>
+      <c r="F6" s="10" t="str">
         <f>LEFT(TEXT(F5,"ddd"),1)</f>
         <v>F</v>
       </c>
-      <c r="G6" s="13" t="str">
+      <c r="G6" s="10" t="str">
         <f t="shared" ref="G6:L6" si="1">LEFT(TEXT(G5,"ddd"),1)</f>
         <v>S</v>
       </c>
-      <c r="H6" s="13" t="str">
+      <c r="H6" s="10" t="str">
         <f t="shared" si="1"/>
         <v>S</v>
       </c>
-      <c r="I6" s="13" t="str">
+      <c r="I6" s="10" t="str">
         <f t="shared" si="1"/>
         <v>M</v>
       </c>
-      <c r="J6" s="13" t="str">
+      <c r="J6" s="10" t="str">
         <f t="shared" si="1"/>
         <v>T</v>
       </c>
-      <c r="K6" s="13" t="str">
+      <c r="K6" s="10" t="str">
         <f t="shared" si="1"/>
         <v>W</v>
       </c>
-      <c r="L6" s="13" t="str">
+      <c r="L6" s="10" t="str">
         <f t="shared" si="1"/>
         <v>T</v>
       </c>
-      <c r="M6" s="13" t="str">
+      <c r="M6" s="10" t="str">
         <f>LEFT(TEXT(M5,"ddd"),1)</f>
         <v>F</v>
       </c>
-      <c r="N6" s="13" t="str">
+      <c r="N6" s="10" t="str">
         <f t="shared" ref="N6" si="2">LEFT(TEXT(N5,"ddd"),1)</f>
         <v>S</v>
       </c>
-      <c r="O6" s="13" t="str">
+      <c r="O6" s="10" t="str">
         <f t="shared" ref="O6" si="3">LEFT(TEXT(O5,"ddd"),1)</f>
         <v>S</v>
       </c>
-      <c r="P6" s="13" t="str">
+      <c r="P6" s="10" t="str">
         <f t="shared" ref="P6" si="4">LEFT(TEXT(P5,"ddd"),1)</f>
         <v>M</v>
       </c>
-      <c r="Q6" s="13" t="str">
+      <c r="Q6" s="10" t="str">
         <f t="shared" ref="Q6" si="5">LEFT(TEXT(Q5,"ddd"),1)</f>
         <v>T</v>
       </c>
-      <c r="R6" s="13" t="str">
+      <c r="R6" s="10" t="str">
         <f t="shared" ref="R6" si="6">LEFT(TEXT(R5,"ddd"),1)</f>
         <v>W</v>
       </c>
-      <c r="S6" s="13" t="str">
+      <c r="S6" s="10" t="str">
         <f t="shared" ref="S6" si="7">LEFT(TEXT(S5,"ddd"),1)</f>
         <v>T</v>
       </c>
-      <c r="T6" s="13" t="str">
+      <c r="T6" s="10" t="str">
         <f>LEFT(TEXT(T5,"ddd"),1)</f>
         <v>F</v>
       </c>
-      <c r="U6" s="13" t="str">
+      <c r="U6" s="10" t="str">
         <f t="shared" ref="U6" si="8">LEFT(TEXT(U5,"ddd"),1)</f>
         <v>S</v>
       </c>
-      <c r="V6" s="13" t="str">
+      <c r="V6" s="10" t="str">
         <f t="shared" ref="V6" si="9">LEFT(TEXT(V5,"ddd"),1)</f>
         <v>S</v>
       </c>
-      <c r="W6" s="13" t="str">
+      <c r="W6" s="10" t="str">
         <f t="shared" ref="W6" si="10">LEFT(TEXT(W5,"ddd"),1)</f>
         <v>M</v>
       </c>
-      <c r="X6" s="13" t="str">
+      <c r="X6" s="10" t="str">
         <f t="shared" ref="X6" si="11">LEFT(TEXT(X5,"ddd"),1)</f>
         <v>T</v>
       </c>
-      <c r="Y6" s="13" t="str">
+      <c r="Y6" s="10" t="str">
         <f t="shared" ref="Y6" si="12">LEFT(TEXT(Y5,"ddd"),1)</f>
         <v>W</v>
       </c>
-      <c r="Z6" s="13" t="str">
+      <c r="Z6" s="10" t="str">
         <f t="shared" ref="Z6" si="13">LEFT(TEXT(Z5,"ddd"),1)</f>
         <v>T</v>
       </c>
-      <c r="AA6" s="13" t="str">
+      <c r="AA6" s="10" t="str">
         <f>LEFT(TEXT(AA5,"ddd"),1)</f>
         <v>F</v>
       </c>
-      <c r="AB6" s="13" t="str">
+      <c r="AB6" s="10" t="str">
         <f t="shared" ref="AB6" si="14">LEFT(TEXT(AB5,"ddd"),1)</f>
         <v>S</v>
       </c>
-      <c r="AC6" s="13" t="str">
+      <c r="AC6" s="10" t="str">
         <f t="shared" ref="AC6" si="15">LEFT(TEXT(AC5,"ddd"),1)</f>
         <v>S</v>
       </c>
-      <c r="AD6" s="13" t="str">
+      <c r="AD6" s="10" t="str">
         <f t="shared" ref="AD6" si="16">LEFT(TEXT(AD5,"ddd"),1)</f>
         <v>M</v>
       </c>
-      <c r="AE6" s="13" t="str">
+      <c r="AE6" s="10" t="str">
         <f t="shared" ref="AE6" si="17">LEFT(TEXT(AE5,"ddd"),1)</f>
         <v>T</v>
       </c>
-      <c r="AF6" s="13" t="str">
+      <c r="AF6" s="10" t="str">
         <f t="shared" ref="AF6" si="18">LEFT(TEXT(AF5,"ddd"),1)</f>
         <v>W</v>
       </c>
-      <c r="AG6" s="13" t="str">
+      <c r="AG6" s="10" t="str">
         <f t="shared" ref="AG6" si="19">LEFT(TEXT(AG5,"ddd"),1)</f>
         <v>T</v>
       </c>
-      <c r="AH6" s="13" t="str">
+      <c r="AH6" s="10" t="str">
         <f>LEFT(TEXT(AH5,"ddd"),1)</f>
         <v>F</v>
       </c>
-      <c r="AI6" s="13" t="str">
+      <c r="AI6" s="10" t="str">
         <f t="shared" ref="AI6" si="20">LEFT(TEXT(AI5,"ddd"),1)</f>
         <v>S</v>
       </c>
-      <c r="AJ6" s="13" t="str">
+      <c r="AJ6" s="10" t="str">
         <f t="shared" ref="AJ6" si="21">LEFT(TEXT(AJ5,"ddd"),1)</f>
         <v>S</v>
       </c>
-      <c r="AK6" s="13" t="str">
+      <c r="AK6" s="10" t="str">
         <f t="shared" ref="AK6" si="22">LEFT(TEXT(AK5,"ddd"),1)</f>
         <v>M</v>
       </c>
-      <c r="AL6" s="13" t="str">
+      <c r="AL6" s="10" t="str">
         <f t="shared" ref="AL6" si="23">LEFT(TEXT(AL5,"ddd"),1)</f>
         <v>T</v>
       </c>
-      <c r="AM6" s="13" t="str">
+      <c r="AM6" s="10" t="str">
         <f t="shared" ref="AM6" si="24">LEFT(TEXT(AM5,"ddd"),1)</f>
         <v>W</v>
       </c>
-      <c r="AN6" s="13" t="str">
+      <c r="AN6" s="10" t="str">
         <f t="shared" ref="AN6" si="25">LEFT(TEXT(AN5,"ddd"),1)</f>
         <v>T</v>
       </c>
-      <c r="AO6" s="13" t="str">
+      <c r="AO6" s="10" t="str">
         <f>LEFT(TEXT(AO5,"ddd"),1)</f>
         <v>F</v>
       </c>
-      <c r="AP6" s="13" t="str">
+      <c r="AP6" s="10" t="str">
         <f t="shared" ref="AP6" si="26">LEFT(TEXT(AP5,"ddd"),1)</f>
         <v>S</v>
       </c>
-      <c r="AQ6" s="13" t="str">
+      <c r="AQ6" s="10" t="str">
         <f t="shared" ref="AQ6" si="27">LEFT(TEXT(AQ5,"ddd"),1)</f>
         <v>S</v>
       </c>
-      <c r="AR6" s="13" t="str">
+      <c r="AR6" s="10" t="str">
         <f t="shared" ref="AR6" si="28">LEFT(TEXT(AR5,"ddd"),1)</f>
         <v>M</v>
       </c>
-      <c r="AS6" s="13" t="str">
+      <c r="AS6" s="10" t="str">
         <f t="shared" ref="AS6" si="29">LEFT(TEXT(AS5,"ddd"),1)</f>
         <v>T</v>
       </c>
-      <c r="AT6" s="13" t="str">
+      <c r="AT6" s="10" t="str">
         <f t="shared" ref="AT6" si="30">LEFT(TEXT(AT5,"ddd"),1)</f>
         <v>W</v>
       </c>
-      <c r="AU6" s="13" t="str">
+      <c r="AU6" s="10" t="str">
         <f t="shared" ref="AU6" si="31">LEFT(TEXT(AU5,"ddd"),1)</f>
         <v>T</v>
       </c>
     </row>
-    <row r="7" spans="1:47" ht="33.6" x14ac:dyDescent="0.3">
-      <c r="A7" s="6">
+    <row r="7" spans="1:47" ht="33" x14ac:dyDescent="0.25">
+      <c r="A7" s="5">
         <v>1</v>
       </c>
-      <c r="B7" s="7" t="s">
+      <c r="B7" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="C7" s="8">
+      <c r="C7" s="7">
         <v>45177</v>
       </c>
-      <c r="D7" s="8">
+      <c r="D7" s="7">
+        <v>45180</v>
+      </c>
+      <c r="E7" s="5"/>
+      <c r="F7" s="11">
+        <v>4</v>
+      </c>
+      <c r="G7" s="11"/>
+      <c r="H7" s="11"/>
+      <c r="I7" s="11"/>
+      <c r="J7" s="16"/>
+      <c r="K7" s="15"/>
+      <c r="L7" s="15"/>
+      <c r="M7" s="15"/>
+      <c r="N7" s="5"/>
+      <c r="O7" s="5"/>
+      <c r="P7" s="5"/>
+      <c r="Q7" s="5"/>
+      <c r="R7" s="5"/>
+      <c r="S7" s="5"/>
+      <c r="T7" s="5"/>
+      <c r="U7" s="5"/>
+      <c r="V7" s="5"/>
+      <c r="W7" s="5"/>
+      <c r="X7" s="5"/>
+      <c r="Y7" s="5"/>
+      <c r="Z7" s="5"/>
+      <c r="AA7" s="5"/>
+      <c r="AB7" s="5"/>
+      <c r="AC7" s="5"/>
+      <c r="AD7" s="5"/>
+      <c r="AE7" s="5"/>
+      <c r="AF7" s="5"/>
+      <c r="AG7" s="5"/>
+      <c r="AH7" s="5"/>
+      <c r="AI7" s="5"/>
+      <c r="AJ7" s="5"/>
+      <c r="AK7" s="5"/>
+      <c r="AL7" s="5"/>
+      <c r="AM7" s="5"/>
+      <c r="AN7" s="5"/>
+      <c r="AO7" s="5"/>
+      <c r="AP7" s="5"/>
+      <c r="AQ7" s="5"/>
+      <c r="AR7" s="5"/>
+      <c r="AS7" s="5"/>
+      <c r="AT7" s="5"/>
+      <c r="AU7" s="5"/>
+    </row>
+    <row r="8" spans="1:47" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="5">
+        <v>2</v>
+      </c>
+      <c r="B8" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="C8" s="7">
+        <v>45182</v>
+      </c>
+      <c r="D8" s="7">
         <v>45184</v>
       </c>
-      <c r="E7" s="6"/>
-      <c r="F7" s="12">
+      <c r="E8" s="5"/>
+      <c r="F8" s="5"/>
+      <c r="G8" s="5"/>
+      <c r="H8" s="5"/>
+      <c r="I8" s="5"/>
+      <c r="J8" s="17">
+        <v>2</v>
+      </c>
+      <c r="K8" s="17"/>
+      <c r="L8" s="5"/>
+      <c r="M8" s="5"/>
+      <c r="N8" s="16"/>
+      <c r="O8" s="16"/>
+      <c r="P8" s="16"/>
+      <c r="Q8" s="16"/>
+      <c r="R8" s="5"/>
+      <c r="S8" s="5"/>
+      <c r="T8" s="5"/>
+      <c r="U8" s="5"/>
+      <c r="V8" s="5"/>
+      <c r="W8" s="5"/>
+      <c r="X8" s="5"/>
+      <c r="Y8" s="5"/>
+      <c r="Z8" s="5"/>
+      <c r="AA8" s="5"/>
+      <c r="AB8" s="5"/>
+      <c r="AC8" s="5"/>
+      <c r="AD8" s="5"/>
+      <c r="AE8" s="5"/>
+      <c r="AF8" s="5"/>
+      <c r="AG8" s="5"/>
+      <c r="AH8" s="5"/>
+      <c r="AI8" s="5"/>
+      <c r="AJ8" s="5"/>
+      <c r="AK8" s="5"/>
+      <c r="AL8" s="5"/>
+      <c r="AM8" s="5"/>
+      <c r="AN8" s="5"/>
+      <c r="AO8" s="5"/>
+      <c r="AP8" s="5"/>
+      <c r="AQ8" s="5"/>
+      <c r="AR8" s="5"/>
+      <c r="AS8" s="5"/>
+      <c r="AT8" s="5"/>
+      <c r="AU8" s="5"/>
+    </row>
+    <row r="9" spans="1:47" ht="33" x14ac:dyDescent="0.25">
+      <c r="A9" s="5">
+        <v>3</v>
+      </c>
+      <c r="B9" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="C9" s="7">
+        <v>45185</v>
+      </c>
+      <c r="D9" s="7">
+        <v>45187</v>
+      </c>
+      <c r="E9" s="5"/>
+      <c r="F9" s="5"/>
+      <c r="G9" s="5"/>
+      <c r="H9" s="5"/>
+      <c r="I9" s="5"/>
+      <c r="J9" s="5"/>
+      <c r="K9" s="5"/>
+      <c r="L9" s="11">
+        <v>2</v>
+      </c>
+      <c r="M9" s="11"/>
+      <c r="N9" s="5"/>
+      <c r="O9" s="5"/>
+      <c r="P9" s="5"/>
+      <c r="Q9" s="5"/>
+      <c r="R9" s="16"/>
+      <c r="S9" s="16"/>
+      <c r="T9" s="16"/>
+      <c r="U9" s="5"/>
+      <c r="V9" s="5"/>
+      <c r="W9" s="5"/>
+      <c r="X9" s="5"/>
+      <c r="Y9" s="5"/>
+      <c r="Z9" s="5"/>
+      <c r="AA9" s="5"/>
+      <c r="AB9" s="5"/>
+      <c r="AC9" s="5"/>
+      <c r="AD9" s="5"/>
+      <c r="AE9" s="5"/>
+      <c r="AF9" s="5"/>
+      <c r="AG9" s="5"/>
+      <c r="AH9" s="5"/>
+      <c r="AI9" s="5"/>
+      <c r="AJ9" s="5"/>
+      <c r="AK9" s="5"/>
+      <c r="AL9" s="5"/>
+      <c r="AM9" s="5"/>
+      <c r="AN9" s="5"/>
+      <c r="AO9" s="5"/>
+      <c r="AP9" s="5"/>
+      <c r="AQ9" s="5"/>
+      <c r="AR9" s="5"/>
+      <c r="AS9" s="5"/>
+      <c r="AT9" s="5"/>
+      <c r="AU9" s="5"/>
+    </row>
+    <row r="10" spans="1:47" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="5">
+        <v>4</v>
+      </c>
+      <c r="B10" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="C10" s="7">
+        <v>45188</v>
+      </c>
+      <c r="D10" s="7">
+        <v>45191</v>
+      </c>
+      <c r="E10" s="5"/>
+      <c r="F10" s="5"/>
+      <c r="G10" s="5"/>
+      <c r="H10" s="5"/>
+      <c r="I10" s="5"/>
+      <c r="J10" s="5"/>
+      <c r="K10" s="5"/>
+      <c r="L10" s="5"/>
+      <c r="M10" s="5"/>
+      <c r="N10" s="11">
+        <v>3</v>
+      </c>
+      <c r="O10" s="11"/>
+      <c r="P10" s="11"/>
+      <c r="Q10" s="5"/>
+      <c r="R10" s="5"/>
+      <c r="S10" s="5"/>
+      <c r="T10" s="5"/>
+      <c r="U10" s="16"/>
+      <c r="V10" s="16"/>
+      <c r="W10" s="16"/>
+      <c r="X10" s="16"/>
+      <c r="Y10" s="16"/>
+      <c r="Z10" s="5"/>
+      <c r="AA10" s="5"/>
+      <c r="AB10" s="5"/>
+      <c r="AC10" s="5"/>
+      <c r="AD10" s="5"/>
+      <c r="AE10" s="5"/>
+      <c r="AF10" s="5"/>
+      <c r="AG10" s="5"/>
+      <c r="AH10" s="5"/>
+      <c r="AI10" s="5"/>
+      <c r="AJ10" s="5"/>
+      <c r="AK10" s="5"/>
+      <c r="AL10" s="5"/>
+      <c r="AM10" s="5"/>
+      <c r="AN10" s="5"/>
+      <c r="AO10" s="5"/>
+      <c r="AP10" s="5"/>
+      <c r="AQ10" s="5"/>
+      <c r="AR10" s="5"/>
+      <c r="AS10" s="5"/>
+      <c r="AT10" s="5"/>
+      <c r="AU10" s="5"/>
+    </row>
+    <row r="11" spans="1:47" ht="30.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="5">
+        <v>5</v>
+      </c>
+      <c r="B11" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C11" s="7">
+        <v>45197</v>
+      </c>
+      <c r="D11" s="7">
+        <v>45199</v>
+      </c>
+      <c r="E11" s="5"/>
+      <c r="F11" s="5"/>
+      <c r="G11" s="5"/>
+      <c r="H11" s="5"/>
+      <c r="I11" s="5"/>
+      <c r="J11" s="5"/>
+      <c r="K11" s="5"/>
+      <c r="L11" s="5"/>
+      <c r="M11" s="5"/>
+      <c r="N11" s="5"/>
+      <c r="O11" s="5"/>
+      <c r="P11" s="5"/>
+      <c r="Q11" s="9">
+        <v>1</v>
+      </c>
+      <c r="R11" s="5"/>
+      <c r="S11" s="5"/>
+      <c r="T11" s="5"/>
+      <c r="U11" s="5"/>
+      <c r="V11" s="5"/>
+      <c r="W11" s="5"/>
+      <c r="X11" s="5"/>
+      <c r="Y11" s="5"/>
+      <c r="Z11" s="16"/>
+      <c r="AA11" s="16"/>
+      <c r="AB11" s="16"/>
+      <c r="AC11" s="5"/>
+      <c r="AD11" s="5"/>
+      <c r="AE11" s="5"/>
+      <c r="AF11" s="5"/>
+      <c r="AG11" s="5"/>
+      <c r="AH11" s="5"/>
+      <c r="AI11" s="5"/>
+      <c r="AJ11" s="5"/>
+      <c r="AK11" s="5"/>
+      <c r="AL11" s="5"/>
+      <c r="AM11" s="5"/>
+      <c r="AN11" s="5"/>
+      <c r="AO11" s="5"/>
+      <c r="AP11" s="5"/>
+      <c r="AQ11" s="5"/>
+      <c r="AR11" s="5"/>
+      <c r="AS11" s="5"/>
+      <c r="AT11" s="5"/>
+      <c r="AU11" s="5"/>
+    </row>
+    <row r="12" spans="1:47" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="5">
+        <v>6</v>
+      </c>
+      <c r="B12" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="G7" s="12"/>
-      <c r="H7" s="12"/>
-      <c r="I7" s="12"/>
-      <c r="J7" s="12"/>
-      <c r="K7" s="12"/>
-      <c r="L7" s="12"/>
-      <c r="M7" s="12"/>
-      <c r="N7" s="6"/>
-      <c r="O7" s="6"/>
-      <c r="P7" s="6"/>
-      <c r="Q7" s="6"/>
-      <c r="R7" s="6"/>
-      <c r="S7" s="6"/>
-      <c r="T7" s="6"/>
-      <c r="U7" s="6"/>
-      <c r="V7" s="6"/>
-      <c r="W7" s="6"/>
-      <c r="X7" s="6"/>
-      <c r="Y7" s="6"/>
-      <c r="Z7" s="6"/>
-      <c r="AA7" s="6"/>
-      <c r="AB7" s="6"/>
-      <c r="AC7" s="6"/>
-      <c r="AD7" s="6"/>
-      <c r="AE7" s="6"/>
-      <c r="AF7" s="6"/>
-      <c r="AG7" s="6"/>
-      <c r="AH7" s="6"/>
-      <c r="AI7" s="6"/>
-      <c r="AJ7" s="6"/>
-      <c r="AK7" s="6"/>
-      <c r="AL7" s="6"/>
-      <c r="AM7" s="6"/>
-      <c r="AN7" s="6"/>
-      <c r="AO7" s="6"/>
-      <c r="AP7" s="6"/>
-      <c r="AQ7" s="6"/>
-      <c r="AR7" s="6"/>
-      <c r="AS7" s="6"/>
-      <c r="AT7" s="6"/>
-      <c r="AU7" s="6"/>
+      <c r="C12" s="7">
+        <v>45200</v>
+      </c>
+      <c r="D12" s="7">
+        <v>45202</v>
+      </c>
+      <c r="E12" s="5"/>
+      <c r="F12" s="5"/>
+      <c r="G12" s="5"/>
+      <c r="H12" s="5"/>
+      <c r="I12" s="5"/>
+      <c r="J12" s="5"/>
+      <c r="K12" s="5"/>
+      <c r="L12" s="5"/>
+      <c r="M12" s="5"/>
+      <c r="N12" s="5"/>
+      <c r="O12" s="5"/>
+      <c r="P12" s="5"/>
+      <c r="Q12" s="5"/>
+      <c r="R12" s="9">
+        <v>1</v>
+      </c>
+      <c r="S12" s="5"/>
+      <c r="T12" s="5"/>
+      <c r="U12" s="5"/>
+      <c r="V12" s="5"/>
+      <c r="W12" s="5"/>
+      <c r="X12" s="5"/>
+      <c r="Y12" s="5"/>
+      <c r="Z12" s="5"/>
+      <c r="AA12" s="5"/>
+      <c r="AB12" s="5"/>
+      <c r="AC12" s="16"/>
+      <c r="AD12" s="16"/>
+      <c r="AE12" s="16"/>
+      <c r="AF12" s="5"/>
+      <c r="AG12" s="5"/>
+      <c r="AH12" s="5"/>
+      <c r="AI12" s="5"/>
+      <c r="AJ12" s="5"/>
+      <c r="AK12" s="5"/>
+      <c r="AL12" s="5"/>
+      <c r="AM12" s="5"/>
+      <c r="AN12" s="5"/>
+      <c r="AO12" s="5"/>
+      <c r="AP12" s="5"/>
+      <c r="AQ12" s="5"/>
+      <c r="AR12" s="5"/>
+      <c r="AS12" s="5"/>
+      <c r="AT12" s="5"/>
+      <c r="AU12" s="5"/>
     </row>
-    <row r="8" spans="1:47" ht="50.4" x14ac:dyDescent="0.3">
-      <c r="A8" s="6">
+    <row r="13" spans="1:47" ht="33" x14ac:dyDescent="0.25">
+      <c r="A13" s="5">
+        <v>7</v>
+      </c>
+      <c r="B13" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="C13" s="7">
+        <v>45203</v>
+      </c>
+      <c r="D13" s="7">
+        <v>45205</v>
+      </c>
+      <c r="E13" s="5"/>
+      <c r="F13" s="5"/>
+      <c r="G13" s="5"/>
+      <c r="H13" s="5"/>
+      <c r="I13" s="5"/>
+      <c r="J13" s="5"/>
+      <c r="K13" s="5"/>
+      <c r="L13" s="5"/>
+      <c r="M13" s="5"/>
+      <c r="N13" s="5"/>
+      <c r="O13" s="5"/>
+      <c r="P13" s="5"/>
+      <c r="Q13" s="5"/>
+      <c r="R13" s="5"/>
+      <c r="S13" s="11">
         <v>2</v>
       </c>
-      <c r="B8" s="7" t="s">
+      <c r="T13" s="11"/>
+      <c r="U13" s="5"/>
+      <c r="V13" s="5"/>
+      <c r="W13" s="5"/>
+      <c r="X13" s="5"/>
+      <c r="Y13" s="5"/>
+      <c r="Z13" s="5"/>
+      <c r="AA13" s="5"/>
+      <c r="AB13" s="5"/>
+      <c r="AC13" s="5"/>
+      <c r="AD13" s="5"/>
+      <c r="AE13" s="5"/>
+      <c r="AF13" s="16"/>
+      <c r="AG13" s="16"/>
+      <c r="AH13" s="16"/>
+      <c r="AI13" s="5"/>
+      <c r="AJ13" s="5"/>
+      <c r="AK13" s="5"/>
+      <c r="AL13" s="5"/>
+      <c r="AM13" s="5"/>
+      <c r="AN13" s="5"/>
+      <c r="AO13" s="5"/>
+      <c r="AP13" s="5"/>
+      <c r="AQ13" s="5"/>
+      <c r="AR13" s="5"/>
+      <c r="AS13" s="5"/>
+      <c r="AT13" s="5"/>
+      <c r="AU13" s="5"/>
+    </row>
+    <row r="14" spans="1:47" ht="33" x14ac:dyDescent="0.25">
+      <c r="A14" s="5">
+        <v>8</v>
+      </c>
+      <c r="B14" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="C14" s="7">
+        <v>45206</v>
+      </c>
+      <c r="D14" s="7">
+        <v>45210</v>
+      </c>
+      <c r="E14" s="5"/>
+      <c r="F14" s="5"/>
+      <c r="G14" s="5"/>
+      <c r="H14" s="5"/>
+      <c r="I14" s="5"/>
+      <c r="J14" s="5"/>
+      <c r="K14" s="5"/>
+      <c r="L14" s="5"/>
+      <c r="M14" s="5"/>
+      <c r="N14" s="5"/>
+      <c r="O14" s="5"/>
+      <c r="P14" s="5"/>
+      <c r="Q14" s="5"/>
+      <c r="R14" s="5"/>
+      <c r="S14" s="5"/>
+      <c r="T14" s="5"/>
+      <c r="U14" s="11">
         <v>3</v>
       </c>
-      <c r="C8" s="8">
-        <v>45185</v>
-      </c>
-      <c r="D8" s="8">
-        <v>45188</v>
-      </c>
-      <c r="E8" s="6"/>
-      <c r="F8" s="6"/>
-      <c r="G8" s="6"/>
-      <c r="H8" s="6"/>
-      <c r="I8" s="6"/>
-      <c r="J8" s="6"/>
-      <c r="K8" s="6"/>
-      <c r="L8" s="6"/>
-      <c r="M8" s="6"/>
-      <c r="N8" s="12">
-        <v>3</v>
-      </c>
-      <c r="O8" s="12"/>
-      <c r="P8" s="12"/>
-      <c r="Q8" s="12"/>
-      <c r="R8" s="6"/>
-      <c r="S8" s="6"/>
-      <c r="T8" s="6"/>
-      <c r="U8" s="6"/>
-      <c r="V8" s="6"/>
-      <c r="W8" s="6"/>
-      <c r="X8" s="6"/>
-      <c r="Y8" s="6"/>
-      <c r="Z8" s="6"/>
-      <c r="AA8" s="6"/>
-      <c r="AB8" s="6"/>
-      <c r="AC8" s="6"/>
-      <c r="AD8" s="6"/>
-      <c r="AE8" s="6"/>
-      <c r="AF8" s="6"/>
-      <c r="AG8" s="6"/>
-      <c r="AH8" s="6"/>
-      <c r="AI8" s="6"/>
-      <c r="AJ8" s="6"/>
-      <c r="AK8" s="6"/>
-      <c r="AL8" s="6"/>
-      <c r="AM8" s="6"/>
-      <c r="AN8" s="6"/>
-      <c r="AO8" s="6"/>
-      <c r="AP8" s="6"/>
-      <c r="AQ8" s="6"/>
-      <c r="AR8" s="6"/>
-      <c r="AS8" s="6"/>
-      <c r="AT8" s="6"/>
-      <c r="AU8" s="6"/>
+      <c r="V14" s="11"/>
+      <c r="W14" s="11"/>
+      <c r="X14" s="5"/>
+      <c r="Y14" s="5"/>
+      <c r="Z14" s="5"/>
+      <c r="AA14" s="5"/>
+      <c r="AB14" s="5"/>
+      <c r="AC14" s="5"/>
+      <c r="AD14" s="5"/>
+      <c r="AE14" s="5"/>
+      <c r="AF14" s="5"/>
+      <c r="AG14" s="5"/>
+      <c r="AH14" s="5"/>
+      <c r="AI14" s="16"/>
+      <c r="AJ14" s="16"/>
+      <c r="AK14" s="16"/>
+      <c r="AL14" s="16"/>
+      <c r="AM14" s="16"/>
+      <c r="AN14" s="5"/>
+      <c r="AO14" s="5"/>
+      <c r="AP14" s="5"/>
+      <c r="AQ14" s="5"/>
+      <c r="AR14" s="5"/>
+      <c r="AS14" s="5"/>
+      <c r="AT14" s="5"/>
+      <c r="AU14" s="5"/>
     </row>
-    <row r="9" spans="1:47" ht="33.6" x14ac:dyDescent="0.3">
-      <c r="A9" s="6">
-        <v>3</v>
-      </c>
-      <c r="B9" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="C9" s="8">
-        <v>45189</v>
-      </c>
-      <c r="D9" s="8">
-        <v>45191</v>
-      </c>
-      <c r="E9" s="6"/>
-      <c r="F9" s="6"/>
-      <c r="G9" s="6"/>
-      <c r="H9" s="6"/>
-      <c r="I9" s="6"/>
-      <c r="J9" s="6"/>
-      <c r="K9" s="6"/>
-      <c r="L9" s="6"/>
-      <c r="M9" s="6"/>
-      <c r="N9" s="6"/>
-      <c r="O9" s="6"/>
-      <c r="P9" s="6"/>
-      <c r="Q9" s="6"/>
-      <c r="R9" s="12">
-        <v>2</v>
-      </c>
-      <c r="S9" s="12"/>
-      <c r="T9" s="12"/>
-      <c r="U9" s="6"/>
-      <c r="V9" s="6"/>
-      <c r="W9" s="6"/>
-      <c r="X9" s="6"/>
-      <c r="Y9" s="6"/>
-      <c r="Z9" s="6"/>
-      <c r="AA9" s="6"/>
-      <c r="AB9" s="6"/>
-      <c r="AC9" s="6"/>
-      <c r="AD9" s="6"/>
-      <c r="AE9" s="6"/>
-      <c r="AF9" s="6"/>
-      <c r="AG9" s="6"/>
-      <c r="AH9" s="6"/>
-      <c r="AI9" s="6"/>
-      <c r="AJ9" s="6"/>
-      <c r="AK9" s="6"/>
-      <c r="AL9" s="6"/>
-      <c r="AM9" s="6"/>
-      <c r="AN9" s="6"/>
-      <c r="AO9" s="6"/>
-      <c r="AP9" s="6"/>
-      <c r="AQ9" s="6"/>
-      <c r="AR9" s="6"/>
-      <c r="AS9" s="6"/>
-      <c r="AT9" s="6"/>
-      <c r="AU9" s="6"/>
+    <row r="15" spans="1:47" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="5">
+        <v>9</v>
+      </c>
+      <c r="B15" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C15" s="7">
+        <v>45211</v>
+      </c>
+      <c r="D15" s="7">
+        <v>45213</v>
+      </c>
+      <c r="E15" s="5"/>
+      <c r="F15" s="5"/>
+      <c r="G15" s="5"/>
+      <c r="H15" s="5"/>
+      <c r="I15" s="5"/>
+      <c r="J15" s="5"/>
+      <c r="K15" s="5"/>
+      <c r="L15" s="5"/>
+      <c r="M15" s="5"/>
+      <c r="N15" s="5"/>
+      <c r="O15" s="5"/>
+      <c r="P15" s="5"/>
+      <c r="Q15" s="5"/>
+      <c r="R15" s="5"/>
+      <c r="S15" s="5"/>
+      <c r="T15" s="5"/>
+      <c r="U15" s="5"/>
+      <c r="V15" s="5"/>
+      <c r="W15" s="5"/>
+      <c r="X15" s="9">
+        <v>1</v>
+      </c>
+      <c r="Y15" s="5"/>
+      <c r="Z15" s="5"/>
+      <c r="AA15" s="5"/>
+      <c r="AB15" s="5"/>
+      <c r="AC15" s="5"/>
+      <c r="AD15" s="5"/>
+      <c r="AE15" s="5"/>
+      <c r="AF15" s="5"/>
+      <c r="AG15" s="5"/>
+      <c r="AH15" s="5"/>
+      <c r="AI15" s="5"/>
+      <c r="AJ15" s="5"/>
+      <c r="AK15" s="5"/>
+      <c r="AL15" s="5"/>
+      <c r="AM15" s="5"/>
+      <c r="AN15" s="16"/>
+      <c r="AO15" s="16"/>
+      <c r="AP15" s="16"/>
+      <c r="AQ15" s="5"/>
+      <c r="AR15" s="5"/>
+      <c r="AS15" s="5"/>
+      <c r="AT15" s="5"/>
+      <c r="AU15" s="5"/>
     </row>
-    <row r="10" spans="1:47" ht="33.6" x14ac:dyDescent="0.3">
-      <c r="A10" s="6">
-        <v>4</v>
-      </c>
-      <c r="B10" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="C10" s="8">
-        <v>45192</v>
-      </c>
-      <c r="D10" s="8">
-        <v>45196</v>
-      </c>
-      <c r="E10" s="6"/>
-      <c r="F10" s="6"/>
-      <c r="G10" s="6"/>
-      <c r="H10" s="6"/>
-      <c r="I10" s="6"/>
-      <c r="J10" s="6"/>
-      <c r="K10" s="6"/>
-      <c r="L10" s="6"/>
-      <c r="M10" s="6"/>
-      <c r="N10" s="6"/>
-      <c r="O10" s="6"/>
-      <c r="P10" s="6"/>
-      <c r="Q10" s="6"/>
-      <c r="R10" s="6"/>
-      <c r="S10" s="6"/>
-      <c r="T10" s="6"/>
-      <c r="U10" s="12">
-        <v>4</v>
-      </c>
-      <c r="V10" s="12"/>
-      <c r="W10" s="12"/>
-      <c r="X10" s="12"/>
-      <c r="Y10" s="12"/>
-      <c r="Z10" s="6"/>
-      <c r="AA10" s="6"/>
-      <c r="AB10" s="6"/>
-      <c r="AC10" s="6"/>
-      <c r="AD10" s="6"/>
-      <c r="AE10" s="6"/>
-      <c r="AF10" s="6"/>
-      <c r="AG10" s="6"/>
-      <c r="AH10" s="6"/>
-      <c r="AI10" s="6"/>
-      <c r="AJ10" s="6"/>
-      <c r="AK10" s="6"/>
-      <c r="AL10" s="6"/>
-      <c r="AM10" s="6"/>
-      <c r="AN10" s="6"/>
-      <c r="AO10" s="6"/>
-      <c r="AP10" s="6"/>
-      <c r="AQ10" s="6"/>
-      <c r="AR10" s="6"/>
-      <c r="AS10" s="6"/>
-      <c r="AT10" s="6"/>
-      <c r="AU10" s="6"/>
-    </row>
-    <row r="11" spans="1:47" ht="30.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="6">
-        <v>5</v>
-      </c>
-      <c r="B11" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="C11" s="8">
-        <v>45197</v>
-      </c>
-      <c r="D11" s="8">
-        <v>45199</v>
-      </c>
-      <c r="E11" s="6"/>
-      <c r="F11" s="6"/>
-      <c r="G11" s="6"/>
-      <c r="H11" s="6"/>
-      <c r="I11" s="6"/>
-      <c r="J11" s="6"/>
-      <c r="K11" s="6"/>
-      <c r="L11" s="6"/>
-      <c r="M11" s="6"/>
-      <c r="N11" s="6"/>
-      <c r="O11" s="6"/>
-      <c r="P11" s="6"/>
-      <c r="Q11" s="6"/>
-      <c r="R11" s="6"/>
-      <c r="S11" s="6"/>
-      <c r="T11" s="6"/>
-      <c r="U11" s="6"/>
-      <c r="V11" s="6"/>
-      <c r="W11" s="6"/>
-      <c r="X11" s="6"/>
-      <c r="Y11" s="6"/>
-      <c r="Z11" s="12">
-        <v>2</v>
-      </c>
-      <c r="AA11" s="12"/>
-      <c r="AB11" s="12"/>
-      <c r="AC11" s="6"/>
-      <c r="AD11" s="6"/>
-      <c r="AE11" s="6"/>
-      <c r="AF11" s="6"/>
-      <c r="AG11" s="6"/>
-      <c r="AH11" s="6"/>
-      <c r="AI11" s="6"/>
-      <c r="AJ11" s="6"/>
-      <c r="AK11" s="6"/>
-      <c r="AL11" s="6"/>
-      <c r="AM11" s="6"/>
-      <c r="AN11" s="6"/>
-      <c r="AO11" s="6"/>
-      <c r="AP11" s="6"/>
-      <c r="AQ11" s="6"/>
-      <c r="AR11" s="6"/>
-      <c r="AS11" s="6"/>
-      <c r="AT11" s="6"/>
-      <c r="AU11" s="6"/>
-    </row>
-    <row r="12" spans="1:47" ht="33" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="6">
-        <v>6</v>
-      </c>
-      <c r="B12" s="7" t="s">
+    <row r="16" spans="1:47" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="5">
+        <v>10</v>
+      </c>
+      <c r="B16" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="C12" s="8">
-        <v>45200</v>
-      </c>
-      <c r="D12" s="8">
-        <v>45202</v>
-      </c>
-      <c r="E12" s="6"/>
-      <c r="F12" s="6"/>
-      <c r="G12" s="6"/>
-      <c r="H12" s="6"/>
-      <c r="I12" s="6"/>
-      <c r="J12" s="6"/>
-      <c r="K12" s="6"/>
-      <c r="L12" s="6"/>
-      <c r="M12" s="6"/>
-      <c r="N12" s="6"/>
-      <c r="O12" s="6"/>
-      <c r="P12" s="6"/>
-      <c r="Q12" s="6"/>
-      <c r="R12" s="6"/>
-      <c r="S12" s="6"/>
-      <c r="T12" s="6"/>
-      <c r="U12" s="6"/>
-      <c r="V12" s="6"/>
-      <c r="W12" s="6"/>
-      <c r="X12" s="6"/>
-      <c r="Y12" s="6"/>
-      <c r="Z12" s="6"/>
-      <c r="AA12" s="6"/>
-      <c r="AB12" s="6"/>
-      <c r="AC12" s="12">
-        <v>2</v>
-      </c>
-      <c r="AD12" s="12"/>
-      <c r="AE12" s="12"/>
-      <c r="AF12" s="6"/>
-      <c r="AG12" s="6"/>
-      <c r="AH12" s="6"/>
-      <c r="AI12" s="6"/>
-      <c r="AJ12" s="6"/>
-      <c r="AK12" s="6"/>
-      <c r="AL12" s="6"/>
-      <c r="AM12" s="6"/>
-      <c r="AN12" s="6"/>
-      <c r="AO12" s="6"/>
-      <c r="AP12" s="6"/>
-      <c r="AQ12" s="6"/>
-      <c r="AR12" s="6"/>
-      <c r="AS12" s="6"/>
-      <c r="AT12" s="6"/>
-      <c r="AU12" s="6"/>
-    </row>
-    <row r="13" spans="1:47" ht="33.6" x14ac:dyDescent="0.3">
-      <c r="A13" s="6">
-        <v>7</v>
-      </c>
-      <c r="B13" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="C13" s="8">
-        <v>45203</v>
-      </c>
-      <c r="D13" s="8">
-        <v>45205</v>
-      </c>
-      <c r="E13" s="6"/>
-      <c r="F13" s="6"/>
-      <c r="G13" s="6"/>
-      <c r="H13" s="6"/>
-      <c r="I13" s="6"/>
-      <c r="J13" s="6"/>
-      <c r="K13" s="6"/>
-      <c r="L13" s="6"/>
-      <c r="M13" s="6"/>
-      <c r="N13" s="6"/>
-      <c r="O13" s="6"/>
-      <c r="P13" s="6"/>
-      <c r="Q13" s="6"/>
-      <c r="R13" s="6"/>
-      <c r="S13" s="6"/>
-      <c r="T13" s="6"/>
-      <c r="U13" s="6"/>
-      <c r="V13" s="6"/>
-      <c r="W13" s="6"/>
-      <c r="X13" s="6"/>
-      <c r="Y13" s="6"/>
-      <c r="Z13" s="6"/>
-      <c r="AA13" s="6"/>
-      <c r="AB13" s="6"/>
-      <c r="AC13" s="6"/>
-      <c r="AD13" s="6"/>
-      <c r="AE13" s="6"/>
-      <c r="AF13" s="12">
-        <v>2</v>
-      </c>
-      <c r="AG13" s="12"/>
-      <c r="AH13" s="12"/>
-      <c r="AI13" s="6"/>
-      <c r="AJ13" s="6"/>
-      <c r="AK13" s="6"/>
-      <c r="AL13" s="6"/>
-      <c r="AM13" s="6"/>
-      <c r="AN13" s="6"/>
-      <c r="AO13" s="6"/>
-      <c r="AP13" s="6"/>
-      <c r="AQ13" s="6"/>
-      <c r="AR13" s="6"/>
-      <c r="AS13" s="6"/>
-      <c r="AT13" s="6"/>
-      <c r="AU13" s="6"/>
-    </row>
-    <row r="14" spans="1:47" ht="33.6" x14ac:dyDescent="0.3">
-      <c r="A14" s="6">
-        <v>8</v>
-      </c>
-      <c r="B14" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="C14" s="8">
-        <v>45206</v>
-      </c>
-      <c r="D14" s="8">
-        <v>45210</v>
-      </c>
-      <c r="E14" s="6"/>
-      <c r="F14" s="6"/>
-      <c r="G14" s="6"/>
-      <c r="H14" s="6"/>
-      <c r="I14" s="6"/>
-      <c r="J14" s="6"/>
-      <c r="K14" s="6"/>
-      <c r="L14" s="6"/>
-      <c r="M14" s="6"/>
-      <c r="N14" s="6"/>
-      <c r="O14" s="6"/>
-      <c r="P14" s="6"/>
-      <c r="Q14" s="6"/>
-      <c r="R14" s="6"/>
-      <c r="S14" s="6"/>
-      <c r="T14" s="6"/>
-      <c r="U14" s="6"/>
-      <c r="V14" s="6"/>
-      <c r="W14" s="6"/>
-      <c r="X14" s="6"/>
-      <c r="Y14" s="6"/>
-      <c r="Z14" s="6"/>
-      <c r="AA14" s="6"/>
-      <c r="AB14" s="6"/>
-      <c r="AC14" s="6"/>
-      <c r="AD14" s="6"/>
-      <c r="AE14" s="6"/>
-      <c r="AF14" s="6"/>
-      <c r="AG14" s="6"/>
-      <c r="AH14" s="6"/>
-      <c r="AI14" s="12">
-        <v>4</v>
-      </c>
-      <c r="AJ14" s="12"/>
-      <c r="AK14" s="12"/>
-      <c r="AL14" s="12"/>
-      <c r="AM14" s="12"/>
-      <c r="AN14" s="6"/>
-      <c r="AO14" s="6"/>
-      <c r="AP14" s="6"/>
-      <c r="AQ14" s="6"/>
-      <c r="AR14" s="6"/>
-      <c r="AS14" s="6"/>
-      <c r="AT14" s="6"/>
-      <c r="AU14" s="6"/>
-    </row>
-    <row r="15" spans="1:47" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="6">
-        <v>9</v>
-      </c>
-      <c r="B15" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="C15" s="8">
-        <v>45211</v>
-      </c>
-      <c r="D15" s="8">
-        <v>45213</v>
-      </c>
-      <c r="E15" s="6"/>
-      <c r="F15" s="6"/>
-      <c r="G15" s="6"/>
-      <c r="H15" s="6"/>
-      <c r="I15" s="6"/>
-      <c r="J15" s="6"/>
-      <c r="K15" s="6"/>
-      <c r="L15" s="6"/>
-      <c r="M15" s="6"/>
-      <c r="N15" s="6"/>
-      <c r="O15" s="6"/>
-      <c r="P15" s="6"/>
-      <c r="Q15" s="6"/>
-      <c r="R15" s="6"/>
-      <c r="S15" s="6"/>
-      <c r="T15" s="6"/>
-      <c r="U15" s="6"/>
-      <c r="V15" s="6"/>
-      <c r="W15" s="6"/>
-      <c r="X15" s="6"/>
-      <c r="Y15" s="6"/>
-      <c r="Z15" s="6"/>
-      <c r="AA15" s="6"/>
-      <c r="AB15" s="6"/>
-      <c r="AC15" s="6"/>
-      <c r="AD15" s="6"/>
-      <c r="AE15" s="6"/>
-      <c r="AF15" s="6"/>
-      <c r="AG15" s="6"/>
-      <c r="AH15" s="6"/>
-      <c r="AI15" s="6"/>
-      <c r="AJ15" s="6"/>
-      <c r="AK15" s="6"/>
-      <c r="AL15" s="6"/>
-      <c r="AM15" s="6"/>
-      <c r="AN15" s="12">
-        <v>2</v>
-      </c>
-      <c r="AO15" s="12"/>
-      <c r="AP15" s="12"/>
-      <c r="AQ15" s="6"/>
-      <c r="AR15" s="6"/>
-      <c r="AS15" s="6"/>
-      <c r="AT15" s="6"/>
-      <c r="AU15" s="6"/>
-    </row>
-    <row r="16" spans="1:47" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="6">
-        <v>10</v>
-      </c>
-      <c r="B16" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="C16" s="8">
+      <c r="C16" s="7">
         <v>45214</v>
       </c>
-      <c r="D16" s="8">
+      <c r="D16" s="7">
         <v>45216</v>
       </c>
-      <c r="E16" s="6"/>
-      <c r="F16" s="6"/>
-      <c r="G16" s="6"/>
-      <c r="H16" s="6"/>
-      <c r="I16" s="6"/>
-      <c r="J16" s="6"/>
-      <c r="K16" s="6"/>
-      <c r="L16" s="6"/>
-      <c r="M16" s="6"/>
-      <c r="N16" s="6"/>
-      <c r="O16" s="6"/>
-      <c r="P16" s="6"/>
-      <c r="Q16" s="6"/>
-      <c r="R16" s="6"/>
-      <c r="S16" s="6"/>
-      <c r="T16" s="6"/>
-      <c r="U16" s="6"/>
-      <c r="V16" s="6"/>
-      <c r="W16" s="6"/>
-      <c r="X16" s="6"/>
-      <c r="Y16" s="6"/>
-      <c r="Z16" s="6"/>
-      <c r="AA16" s="6"/>
-      <c r="AB16" s="6"/>
-      <c r="AC16" s="6"/>
-      <c r="AD16" s="6"/>
-      <c r="AE16" s="6"/>
-      <c r="AF16" s="6"/>
-      <c r="AG16" s="6"/>
-      <c r="AH16" s="6"/>
-      <c r="AI16" s="6"/>
-      <c r="AJ16" s="6"/>
-      <c r="AK16" s="6"/>
-      <c r="AL16" s="6"/>
-      <c r="AM16" s="6"/>
-      <c r="AN16" s="6"/>
-      <c r="AO16" s="6"/>
-      <c r="AP16" s="6"/>
-      <c r="AQ16" s="12">
-        <v>2</v>
-      </c>
-      <c r="AR16" s="12"/>
-      <c r="AS16" s="12"/>
-      <c r="AT16" s="6"/>
-      <c r="AU16" s="6"/>
+      <c r="E16" s="5"/>
+      <c r="F16" s="5"/>
+      <c r="G16" s="5"/>
+      <c r="H16" s="5"/>
+      <c r="I16" s="5"/>
+      <c r="J16" s="5"/>
+      <c r="K16" s="5"/>
+      <c r="L16" s="5"/>
+      <c r="M16" s="5"/>
+      <c r="N16" s="5"/>
+      <c r="O16" s="5"/>
+      <c r="P16" s="5"/>
+      <c r="Q16" s="5"/>
+      <c r="R16" s="5"/>
+      <c r="S16" s="5"/>
+      <c r="T16" s="5"/>
+      <c r="U16" s="5"/>
+      <c r="V16" s="5"/>
+      <c r="W16" s="5"/>
+      <c r="X16" s="5"/>
+      <c r="Y16" s="9">
+        <v>1</v>
+      </c>
+      <c r="Z16" s="5"/>
+      <c r="AA16" s="5"/>
+      <c r="AB16" s="5"/>
+      <c r="AC16" s="5"/>
+      <c r="AD16" s="5"/>
+      <c r="AE16" s="5"/>
+      <c r="AF16" s="5"/>
+      <c r="AG16" s="5"/>
+      <c r="AH16" s="5"/>
+      <c r="AI16" s="5"/>
+      <c r="AJ16" s="5"/>
+      <c r="AK16" s="5"/>
+      <c r="AL16" s="5"/>
+      <c r="AM16" s="5"/>
+      <c r="AN16" s="5"/>
+      <c r="AO16" s="5"/>
+      <c r="AP16" s="5"/>
+      <c r="AQ16" s="16"/>
+      <c r="AR16" s="16"/>
+      <c r="AS16" s="16"/>
+      <c r="AT16" s="5"/>
+      <c r="AU16" s="5"/>
     </row>
   </sheetData>
-  <mergeCells count="17">
-    <mergeCell ref="Z11:AB11"/>
-    <mergeCell ref="AC12:AE12"/>
-    <mergeCell ref="AF13:AH13"/>
-    <mergeCell ref="AI14:AM14"/>
-    <mergeCell ref="AN15:AP15"/>
-    <mergeCell ref="AQ16:AS16"/>
+  <mergeCells count="13">
+    <mergeCell ref="N10:P10"/>
+    <mergeCell ref="S13:T13"/>
+    <mergeCell ref="U14:W14"/>
     <mergeCell ref="C3:D3"/>
-    <mergeCell ref="F7:M7"/>
-    <mergeCell ref="N8:Q8"/>
-    <mergeCell ref="R9:T9"/>
-    <mergeCell ref="U10:Y10"/>
     <mergeCell ref="F4:L4"/>
     <mergeCell ref="M4:S4"/>
     <mergeCell ref="T4:Z4"/>
     <mergeCell ref="AA4:AG4"/>
     <mergeCell ref="AH4:AN4"/>
     <mergeCell ref="AO4:AU4"/>
+    <mergeCell ref="F7:I7"/>
+    <mergeCell ref="J8:K8"/>
+    <mergeCell ref="L9:M9"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/Bieu_do_Gantt_.xlsx
+++ b/Bieu_do_Gantt_.xlsx
@@ -61,7 +61,7 @@
     <numFmt numFmtId="178" formatCode="ddd\,\ d\-mmm\-yyyy"/>
     <numFmt numFmtId="179" formatCode="d"/>
   </numFmts>
-  <fonts count="26">
+  <fonts count="25">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -97,13 +97,6 @@
       <sz val="13"/>
       <name val="Times New Roman"/>
       <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <u/>
@@ -250,7 +243,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="36">
+  <fills count="35">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -338,12 +331,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -608,148 +595,148 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="176" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="8" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="7" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="8" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1124,8 +1111,8 @@
   <sheetPr/>
   <dimension ref="A3:AU16"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="U18" sqref="U18"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="N2" sqref="N2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85185185185185" defaultRowHeight="16.8"/>
@@ -1633,10 +1620,10 @@
         <v>6</v>
       </c>
       <c r="C8" s="12">
+        <v>45181</v>
+      </c>
+      <c r="D8" s="12">
         <v>45182</v>
-      </c>
-      <c r="D8" s="12">
-        <v>45184</v>
       </c>
       <c r="E8" s="10"/>
       <c r="F8" s="10"/>
@@ -1692,10 +1679,10 @@
         <v>7</v>
       </c>
       <c r="C9" s="12">
-        <v>45185</v>
+        <v>45183</v>
       </c>
       <c r="D9" s="12">
-        <v>45187</v>
+        <v>45184</v>
       </c>
       <c r="E9" s="10"/>
       <c r="F9" s="10"/>
@@ -1751,10 +1738,10 @@
         <v>8</v>
       </c>
       <c r="C10" s="12">
-        <v>45188</v>
+        <v>45185</v>
       </c>
       <c r="D10" s="12">
-        <v>45191</v>
+        <v>45187</v>
       </c>
       <c r="E10" s="10"/>
       <c r="F10" s="10"/>
@@ -1810,10 +1797,10 @@
         <v>9</v>
       </c>
       <c r="C11" s="12">
-        <v>45197</v>
+        <v>45188</v>
       </c>
       <c r="D11" s="12">
-        <v>45199</v>
+        <v>45188</v>
       </c>
       <c r="E11" s="10"/>
       <c r="F11" s="10"/>
@@ -1869,10 +1856,10 @@
         <v>10</v>
       </c>
       <c r="C12" s="12">
-        <v>45200</v>
+        <v>45189</v>
       </c>
       <c r="D12" s="12">
-        <v>45202</v>
+        <v>45189</v>
       </c>
       <c r="E12" s="10"/>
       <c r="F12" s="10"/>
@@ -1928,10 +1915,10 @@
         <v>7</v>
       </c>
       <c r="C13" s="12">
-        <v>45203</v>
+        <v>45190</v>
       </c>
       <c r="D13" s="12">
-        <v>45205</v>
+        <v>45191</v>
       </c>
       <c r="E13" s="10"/>
       <c r="F13" s="10"/>
@@ -1987,10 +1974,10 @@
         <v>8</v>
       </c>
       <c r="C14" s="12">
-        <v>45206</v>
+        <v>45192</v>
       </c>
       <c r="D14" s="12">
-        <v>45210</v>
+        <v>45194</v>
       </c>
       <c r="E14" s="10"/>
       <c r="F14" s="10"/>
@@ -2046,10 +2033,10 @@
         <v>9</v>
       </c>
       <c r="C15" s="12">
-        <v>45211</v>
+        <v>45195</v>
       </c>
       <c r="D15" s="12">
-        <v>45213</v>
+        <v>45195</v>
       </c>
       <c r="E15" s="10"/>
       <c r="F15" s="10"/>
@@ -2105,10 +2092,10 @@
         <v>10</v>
       </c>
       <c r="C16" s="12">
-        <v>45214</v>
+        <v>45196</v>
       </c>
       <c r="D16" s="12">
-        <v>45216</v>
+        <v>45196</v>
       </c>
       <c r="E16" s="10"/>
       <c r="F16" s="10"/>
